--- a/2025/11/2025-11-13/13_combined_confidence.xlsx
+++ b/2025/11/2025-11-13/13_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,29 +618,6 @@
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Suriname  - El Salvador: 21:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Suriname</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>43</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>81</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
